--- a/app/Guest.xlsx
+++ b/app/Guest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Công ty" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Bạn C3" sheetId="3" r:id="rId3"/>
     <sheet name="Bạn C2" sheetId="4" r:id="rId4"/>
     <sheet name="Người làng" sheetId="5" r:id="rId5"/>
+    <sheet name="Tổng" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
   <si>
     <t>ITT</t>
   </si>
@@ -281,12 +282,6 @@
     <t>Đội bóng</t>
   </si>
   <si>
-    <t>A Thiện</t>
-  </si>
-  <si>
-    <t>A Tuân</t>
-  </si>
-  <si>
     <t>A Chiểu</t>
   </si>
   <si>
@@ -350,9 +345,6 @@
     <t>A Hải</t>
   </si>
   <si>
-    <t>A Phú</t>
-  </si>
-  <si>
     <t>Tiệp</t>
   </si>
   <si>
@@ -431,9 +423,6 @@
     <t>Hoàng</t>
   </si>
   <si>
-    <t>Thành</t>
-  </si>
-  <si>
     <t>Hiền BG</t>
   </si>
   <si>
@@ -542,9 +531,6 @@
     <t>Cao Tâm</t>
   </si>
   <si>
-    <t>Cương</t>
-  </si>
-  <si>
     <t>Vũ</t>
   </si>
   <si>
@@ -555,6 +541,51 @@
   </si>
   <si>
     <t>Phượng</t>
+  </si>
+  <si>
+    <t>A Chinh MAT</t>
+  </si>
+  <si>
+    <t>A Định</t>
+  </si>
+  <si>
+    <t>Khắc</t>
+  </si>
+  <si>
+    <t>Thành Khoái</t>
+  </si>
+  <si>
+    <t>A Cương</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>Trường</t>
+  </si>
+  <si>
+    <t>Mời cơm t7</t>
+  </si>
+  <si>
+    <t>11/02</t>
+  </si>
+  <si>
+    <t>12/02</t>
+  </si>
+  <si>
+    <t>Công ty</t>
+  </si>
+  <si>
+    <t>Bạn ĐH</t>
+  </si>
+  <si>
+    <t>Bạn C3</t>
+  </si>
+  <si>
+    <t>Bạn C2</t>
+  </si>
+  <si>
+    <t>Người làng</t>
   </si>
 </sst>
 </file>
@@ -564,7 +595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +661,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -740,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,11 +816,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,12 +843,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1092,7 +1144,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,8 +1168,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>109</v>
+      <c r="A1" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -1165,29 +1217,29 @@
         <v>72</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="V1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -1214,10 +1266,10 @@
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>66</v>
@@ -1226,35 +1278,35 @@
         <v>69</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="U2" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -1281,35 +1333,35 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>112</v>
+      <c r="L3" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -1337,18 +1389,18 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>52</v>
@@ -1357,14 +1409,14 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -1386,7 +1438,7 @@
       <c r="H5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="16" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="7"/>
@@ -1394,28 +1446,26 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -1443,28 +1493,26 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -1490,26 +1538,21 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -1541,14 +1584,14 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -1564,7 +1607,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="16" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="7"/>
@@ -1581,11 +1624,11 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -1616,11 +1659,11 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -1651,11 +1694,11 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -1670,7 +1713,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1685,10 +1728,12 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="8"/>
+      <c r="W12" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -1701,7 +1746,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1719,7 +1764,7 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
@@ -1748,7 +1793,7 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -1777,7 +1822,7 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
@@ -1804,7 +1849,7 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
@@ -1831,7 +1876,7 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
@@ -1858,7 +1903,7 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
@@ -1912,7 +1957,7 @@
       </c>
       <c r="O19" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P19" s="12">
         <f t="shared" si="0"/>
@@ -1920,7 +1965,7 @@
       </c>
       <c r="Q19" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19" s="12">
         <f t="shared" si="0"/>
@@ -1944,19 +1989,19 @@
       </c>
       <c r="W19" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="24">
         <f>SUM(C19:W19)</f>
-        <v>106</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>103</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1978,12 +2023,12 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2005,8 +2050,8 @@
       <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>110</v>
+      <c r="A22" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -2024,125 +2069,137 @@
         <v>67</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -2164,7 +2221,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C22" sqref="C22:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,310 +2231,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>109</v>
+      <c r="A1" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="14">
         <f>COUNTA(C2:C18)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>110</v>
+      <c r="A22" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="C32" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="C33" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="C34" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="C35" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="C36" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="C37" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -2489,6 +2546,7 @@
     <mergeCell ref="C20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2497,7 +2555,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,315 +2565,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>109</v>
+      <c r="A1" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>78</v>
+      <c r="C5" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>157</v>
+      <c r="C12" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>110</v>
+      <c r="A22" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -2831,363 +2895,412 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>109</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="C7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>139</v>
+      <c r="C18" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>165</v>
+      <c r="C19" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>110</v>
+      <c r="A22" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -3205,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,266 +3328,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>109</v>
+      <c r="A1" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>110</v>
+      <c r="A22" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -3486,4 +3599,72 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/Guest.xlsx
+++ b/app/Guest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Công ty" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="176">
   <si>
     <t>ITT</t>
   </si>
@@ -243,18 +243,12 @@
     <t>Chị Vượng</t>
   </si>
   <si>
-    <t>Cúc</t>
-  </si>
-  <si>
     <t>Chị Xuân</t>
   </si>
   <si>
     <t>A Hạ</t>
   </si>
   <si>
-    <t>Hường</t>
-  </si>
-  <si>
     <t>Chị Hoa</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>Trang</t>
   </si>
   <si>
-    <t>A Lực</t>
-  </si>
-  <si>
     <t>PTT</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
     <t>Việt</t>
   </si>
   <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
     <t>Tuấn Anh</t>
   </si>
   <si>
@@ -586,6 +574,18 @@
   </si>
   <si>
     <t>Người làng</t>
+  </si>
+  <si>
+    <t>Thảo</t>
+  </si>
+  <si>
+    <t>Mr.Cho</t>
+  </si>
+  <si>
+    <t>Mr.Kim</t>
+  </si>
+  <si>
+    <t>Mr.Yang</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +665,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -778,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,6 +832,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,13 +867,23 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,8 +1193,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>106</v>
+      <c r="A1" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -1208,234 +1233,229 @@
         <v>57</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="P1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="W1" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="31" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>108</v>
+      <c r="K2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="K3" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="L3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
-        <v>74</v>
+        <v>105</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>97</v>
+      <c r="Q3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>79</v>
+      <c r="V3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>110</v>
+      <c r="L4" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="7" t="s">
+      <c r="Q4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>52</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>104</v>
+      <c r="V4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="16" t="s">
         <v>50</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -1448,44 +1468,44 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>76</v>
+      <c r="Q5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>105</v>
+      <c r="V5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="16" t="s">
         <v>62</v>
       </c>
       <c r="J6" s="7"/>
@@ -1495,42 +1515,42 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="Q6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>111</v>
+      <c r="V6" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="16" t="s">
         <v>63</v>
       </c>
       <c r="J7" s="7"/>
@@ -1540,36 +1560,39 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
+      <c r="Q7" s="36" t="s">
+        <v>173</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>112</v>
+      <c r="V7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>25</v>
+      <c r="I8" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1583,32 +1606,29 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>113</v>
+      <c r="W8" s="32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="31" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1623,28 +1643,27 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="8" t="s">
-        <v>114</v>
+      <c r="W9" s="32" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1658,12 +1677,12 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="8" t="s">
-        <v>115</v>
+      <c r="W10" s="32" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -1672,14 +1691,11 @@
       <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="31" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1693,28 +1709,25 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="8" t="s">
-        <v>116</v>
+      <c r="W11" s="32" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="31" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1728,26 +1741,23 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="8" t="s">
-        <v>161</v>
+      <c r="W12" s="32" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1764,14 +1774,14 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="31" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="7"/>
@@ -1793,14 +1803,14 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="7"/>
@@ -1822,14 +1832,16 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1849,14 +1861,16 @@
       <c r="W16" s="8"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1876,7 +1890,7 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
@@ -1903,13 +1917,13 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="12">
         <f>COUNTA(C2:C18)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" ref="D19:W19" si="0">COUNTA(D2:D18)</f>
@@ -1921,11 +1935,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12">
         <f t="shared" si="0"/>
@@ -1933,7 +1947,7 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
@@ -1941,7 +1955,7 @@
       </c>
       <c r="K19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="12">
         <f t="shared" si="0"/>
@@ -1956,20 +1970,20 @@
         <v>1</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>COUNTA(O2:O18)</f>
+        <v>2</v>
       </c>
       <c r="P19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R19" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" s="12">
         <f t="shared" si="0"/>
@@ -1977,7 +1991,7 @@
       </c>
       <c r="T19" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="12">
         <f t="shared" si="0"/>
@@ -1985,7 +1999,7 @@
       </c>
       <c r="V19" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W19" s="12">
         <f t="shared" si="0"/>
@@ -1993,15 +2007,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="28">
         <f>SUM(C19:W19)</f>
-        <v>103</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="28"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -2023,12 +2037,12 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2050,156 +2064,142 @@
       <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>107</v>
+      <c r="A22" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -2221,7 +2221,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,120 +2231,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>106</v>
+      <c r="A1" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
@@ -2354,142 +2354,142 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>107</v>
+      <c r="A22" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>150</v>
+      <c r="C32" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>132</v>
+      <c r="C33" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
@@ -2498,43 +2498,43 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -2565,321 +2565,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>106</v>
+      <c r="A1" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>107</v>
+      <c r="A22" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -2909,398 +2909,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>106</v>
+      <c r="A1" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>107</v>
+      <c r="A22" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -3328,266 +3328,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>106</v>
+      <c r="A1" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>107</v>
+      <c r="A22" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -3605,13 +3605,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -3620,25 +3620,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>169</v>
+      <c r="A2" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="B2">
         <v>103</v>
@@ -3654,8 +3654,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>170</v>
+      <c r="A3" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="B3">
         <v>11</v>
